--- a/Hardware/BOM RF PCB.xlsx
+++ b/Hardware/BOM RF PCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hf-datengrab\Projekte\2019 MetaSEC\Heinrichs\Open Source RIS\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heinrichs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E21BF-FDCC-4502-94B8-D95DE2BF572B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AAE710-3C1C-48FA-948D-EE293AF2DA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Part</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>BOM for Open Source RIS - RF PCB</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>C001-256</t>
+  </si>
+  <si>
+    <t>LED001-256</t>
+  </si>
+  <si>
+    <t>R001-256</t>
+  </si>
+  <si>
+    <t>C257-288</t>
+  </si>
+  <si>
+    <t>IC001-256</t>
+  </si>
+  <si>
+    <t>IC257-288</t>
+  </si>
+  <si>
+    <t>R257-557</t>
+  </si>
+  <si>
+    <t>J3-4</t>
+  </si>
+  <si>
+    <t>J1-2</t>
   </si>
 </sst>
 </file>
@@ -502,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F20:F22"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +581,9 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -574,7 +607,9 @@
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -599,7 +634,9 @@
       <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -624,7 +661,9 @@
       <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -649,7 +688,9 @@
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -674,7 +715,9 @@
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -699,7 +742,9 @@
       <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -724,7 +769,9 @@
       <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -749,7 +796,9 @@
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -774,7 +823,9 @@
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
